--- a/biology/Microbiologie/Mannitol_hypersalé-lécithine_(Chapman_lécithine)/Mannitol_hypersalé-lécithine_(Chapman_lécithine).xlsx
+++ b/biology/Microbiologie/Mannitol_hypersalé-lécithine_(Chapman_lécithine)/Mannitol_hypersalé-lécithine_(Chapman_lécithine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mannitol_hypersal%C3%A9-l%C3%A9cithine_(Chapman_l%C3%A9cithine)</t>
+          <t>Mannitol_hypersalé-lécithine_(Chapman_lécithine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mannitol hypersalé-lécithine est un milieu de culture.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mannitol_hypersal%C3%A9-l%C3%A9cithine_(Chapman_l%C3%A9cithine)</t>
+          <t>Mannitol_hypersalé-lécithine_(Chapman_lécithine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Isolement des staphylocoques (moins sélectif qu'en gélose Chapman).
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mannitol_hypersal%C3%A9-l%C3%A9cithine_(Chapman_l%C3%A9cithine)</t>
+          <t>Mannitol_hypersalé-lécithine_(Chapman_lécithine)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Composition pour un litre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Peptone :.................16 g
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mannitol_hypersal%C3%A9-l%C3%A9cithine_(Chapman_l%C3%A9cithine)</t>
+          <t>Mannitol_hypersalé-lécithine_(Chapman_lécithine)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce milieu est préparé dans le bain-marie de façon habituelle. La lécithine est incluse dans la poudre.
 </t>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mannitol_hypersal%C3%A9-l%C3%A9cithine_(Chapman_l%C3%A9cithine)</t>
+          <t>Mannitol_hypersalé-lécithine_(Chapman_lécithine)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le chlorure de sodium est inhibiteur à cette concentration.
 Le mannitol est le sucre qui sera dégradé pour l'apport énergétique.
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mannitol_hypersal%C3%A9-l%C3%A9cithine_(Chapman_l%C3%A9cithine)</t>
+          <t>Mannitol_hypersalé-lécithine_(Chapman_lécithine)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +662,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le milieu est légèrement opalescent à cause de la lécithine. Les colonies mannitol + sont jaunes, les mannitol - rouges.
 </t>
